--- a/config_debug/act_xrxsfl_config.xlsx
+++ b/config_debug/act_xrxsfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1000351</v>
+        <v>1000352</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>37</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1000352</v>
+        <v>1000353</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>1000353</v>
+        <v>1000354</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>1000354</v>
+        <v>1000355</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>1000355</v>
+        <v>1000356</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>1000356</v>
+        <v>1000357</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -1316,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>1000357</v>
+        <v>1000358</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>1000358</v>
+        <v>1000359</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -1364,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>1000359</v>
+        <v>1000360</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>1000360</v>
+        <v>1000361</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -1412,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>1000361</v>
+        <v>1000362</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>1000362</v>
+        <v>1000363</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
